--- a/13/2/1/Gobierno General 2008 a 2021 - Trimestral.xlsx
+++ b/13/2/1/Gobierno General 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Serie</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1281,13 +1284,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>65222662</v>
+        <v>65221884</v>
       </c>
       <c r="C53">
         <v>65167462</v>
       </c>
       <c r="D53">
-        <v>55200</v>
+        <v>54423</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1295,13 +1298,27 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>67668718</v>
+        <v>67667925</v>
       </c>
       <c r="C54">
         <v>67616655</v>
       </c>
       <c r="D54">
-        <v>52063</v>
+        <v>51271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>71982736</v>
+      </c>
+      <c r="C55">
+        <v>71933370</v>
+      </c>
+      <c r="D55">
+        <v>49367</v>
       </c>
     </row>
   </sheetData>
